--- a/ResultadoEleicoesDistritos/BEJA_OURIQUE.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_OURIQUE.xlsx
@@ -597,25 +597,25 @@
         <v>1251</v>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" t="n">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T2" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>774</v>
+        <v>817</v>
       </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
         <v>3</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
